--- a/export/export/MSFT_1mo_stock_data.xlsx
+++ b/export/export/MSFT_1mo_stock_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,22 +479,42 @@
           <t>RSI</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>EMA_Fast</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>EMA_Slow</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>MACD</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Signal</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>415.5</v>
+        <v>440.2300109863281</v>
       </c>
       <c r="B2" t="n">
-        <v>423.989990234375</v>
+        <v>441.8500061035156</v>
       </c>
       <c r="C2" t="n">
-        <v>409.5799865722656</v>
+        <v>432.2699890136719</v>
       </c>
       <c r="D2" t="n">
-        <v>423.0400085449219</v>
+        <v>435.1499938964844</v>
       </c>
       <c r="E2" t="n">
-        <v>19266900</v>
+        <v>18874200</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -504,22 +524,34 @@
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>435.1499938964844</v>
+      </c>
+      <c r="K2" t="n">
+        <v>435.1499938964844</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>423.3099975585938</v>
+        <v>435</v>
       </c>
       <c r="B3" t="n">
-        <v>427.3699951171875</v>
+        <v>436.0299987792969</v>
       </c>
       <c r="C3" t="n">
-        <v>419.75</v>
+        <v>430.4100036621094</v>
       </c>
       <c r="D3" t="n">
-        <v>427</v>
+        <v>430.8099975585938</v>
       </c>
       <c r="E3" t="n">
-        <v>17418800</v>
+        <v>18898000</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -529,22 +561,34 @@
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>434.4823021521935</v>
+      </c>
+      <c r="K3" t="n">
+        <v>434.8285126862702</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.3462105340767039</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-0.06924210681534078</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>425.8299865722656</v>
+        <v>441.2300109863281</v>
       </c>
       <c r="B4" t="n">
-        <v>431.8299865722656</v>
+        <v>441.5</v>
       </c>
       <c r="C4" t="n">
-        <v>425.4599914550781</v>
+        <v>436.8999938964844</v>
       </c>
       <c r="D4" t="n">
-        <v>430.5899963378906</v>
+        <v>438.6900024414062</v>
       </c>
       <c r="E4" t="n">
-        <v>15874600</v>
+        <v>21706600</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -554,22 +598,34 @@
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>435.1296406582263</v>
+      </c>
+      <c r="K4" t="n">
+        <v>435.1145489644284</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01509169379784225</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.05237534669270417</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>430.6000061035156</v>
+        <v>437.2200012207031</v>
       </c>
       <c r="B5" t="n">
-        <v>433.5299987792969</v>
+        <v>439.239990234375</v>
       </c>
       <c r="C5" t="n">
-        <v>428.2200012207031</v>
+        <v>434.2200012207031</v>
       </c>
       <c r="D5" t="n">
-        <v>431.3399963378906</v>
+        <v>435.2699890136719</v>
       </c>
       <c r="E5" t="n">
-        <v>13834700</v>
+        <v>55167100</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -579,22 +635,34 @@
       </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>435.1512327129102</v>
+      </c>
+      <c r="K5" t="n">
+        <v>435.1260630421501</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.02516967076007859</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.03686634320214763</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>440.2300109863281</v>
+        <v>434.2799987792969</v>
       </c>
       <c r="B6" t="n">
-        <v>441.8500061035156</v>
+        <v>436.4599914550781</v>
       </c>
       <c r="C6" t="n">
-        <v>432.2699890136719</v>
+        <v>430.3900146484375</v>
       </c>
       <c r="D6" t="n">
-        <v>435.1499938964844</v>
+        <v>433.510009765625</v>
       </c>
       <c r="E6" t="n">
-        <v>18874200</v>
+        <v>15128900</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -603,25 +671,37 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>429.4239990234375</v>
+        <v>434.6859985351563</v>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>434.8987368748663</v>
+      </c>
+      <c r="K6" t="n">
+        <v>435.0063553920372</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.107618517170863</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-0.05101677799589071</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B7" t="n">
-        <v>436.0299987792969</v>
+        <v>433.3500061035156</v>
       </c>
       <c r="C7" t="n">
-        <v>430.4100036621094</v>
+        <v>426.1000061035156</v>
       </c>
       <c r="D7" t="n">
-        <v>430.8099975585938</v>
+        <v>429.1700134277344</v>
       </c>
       <c r="E7" t="n">
-        <v>18898000</v>
+        <v>17015800</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -630,25 +710,37 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>430.9779968261719</v>
+        <v>433.4900024414063</v>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>434.0173948060768</v>
+      </c>
+      <c r="K7" t="n">
+        <v>434.5740337650518</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-0.5566389589749292</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-0.1521412141916984</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>441.2300109863281</v>
+        <v>429.8299865722656</v>
       </c>
       <c r="B8" t="n">
-        <v>441.5</v>
+        <v>433.1199951171875</v>
       </c>
       <c r="C8" t="n">
-        <v>436.8999938964844</v>
+        <v>428.5700073242188</v>
       </c>
       <c r="D8" t="n">
-        <v>438.6900024414062</v>
+        <v>432.1099853515625</v>
       </c>
       <c r="E8" t="n">
-        <v>21706600</v>
+        <v>13396400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -657,25 +749,37 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>433.3159973144531</v>
+        <v>433.75</v>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>433.72394719769</v>
+      </c>
+      <c r="K8" t="n">
+        <v>434.3915116603488</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.6675644626588451</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.2552258638851277</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>437.2200012207031</v>
+        <v>435.0899963378906</v>
       </c>
       <c r="B9" t="n">
-        <v>439.239990234375</v>
+        <v>435.2999877929688</v>
       </c>
       <c r="C9" t="n">
-        <v>434.2200012207031</v>
+        <v>429.1300048828125</v>
       </c>
       <c r="D9" t="n">
-        <v>435.2699890136719</v>
+        <v>431.3099975585938</v>
       </c>
       <c r="E9" t="n">
-        <v>55167100</v>
+        <v>14492000</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -684,25 +788,37 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>434.2519958496094</v>
+        <v>432.2739990234375</v>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>433.3525703301367</v>
+      </c>
+      <c r="K9" t="n">
+        <v>434.1632513565151</v>
+      </c>
+      <c r="L9" t="n">
+        <v>-0.8106810263784041</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-0.3663168963837831</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>434.2799987792969</v>
+        <v>431.5199890136719</v>
       </c>
       <c r="B10" t="n">
-        <v>436.4599914550781</v>
+        <v>431.8500061035156</v>
       </c>
       <c r="C10" t="n">
-        <v>430.3900146484375</v>
+        <v>427.4700012207031</v>
       </c>
       <c r="D10" t="n">
-        <v>433.510009765625</v>
+        <v>428.0199890136719</v>
       </c>
       <c r="E10" t="n">
-        <v>15128900</v>
+        <v>14896100</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -711,25 +827,37 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>434.6859985351563</v>
+        <v>430.8239990234375</v>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>432.5321732045267</v>
+      </c>
+      <c r="K10" t="n">
+        <v>433.7081948866748</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-1.176021682148132</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-0.5282578535366529</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>433</v>
+        <v>428.2099914550781</v>
       </c>
       <c r="B11" t="n">
-        <v>433.3500061035156</v>
+        <v>430.4200134277344</v>
       </c>
       <c r="C11" t="n">
-        <v>426.1000061035156</v>
+        <v>425.3699951171875</v>
       </c>
       <c r="D11" t="n">
-        <v>429.1700134277344</v>
+        <v>430.2999877929688</v>
       </c>
       <c r="E11" t="n">
-        <v>17015800</v>
+        <v>16807300</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -738,25 +866,37 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>433.4900024414063</v>
+        <v>430.1819946289062</v>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>432.188760064287</v>
+      </c>
+      <c r="K11" t="n">
+        <v>433.4557351019558</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-1.266975037668828</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.6760012903630881</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>429.8299865722656</v>
+        <v>428.4500122070312</v>
       </c>
       <c r="B12" t="n">
-        <v>433.1199951171875</v>
+        <v>428.4800109863281</v>
       </c>
       <c r="C12" t="n">
-        <v>428.5700073242188</v>
+        <v>418.8099975585938</v>
       </c>
       <c r="D12" t="n">
-        <v>432.1099853515625</v>
+        <v>420.6900024414062</v>
       </c>
       <c r="E12" t="n">
-        <v>13396400</v>
+        <v>19092900</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -765,25 +905,37 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>433.75</v>
+        <v>428.4859924316406</v>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>430.4197204299977</v>
+      </c>
+      <c r="K12" t="n">
+        <v>432.5101252752485</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-2.090404845250816</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-0.9588820013406338</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>435.0899963378906</v>
+        <v>422.5799865722656</v>
       </c>
       <c r="B13" t="n">
-        <v>435.2999877929688</v>
+        <v>422.8200073242188</v>
       </c>
       <c r="C13" t="n">
-        <v>429.1300048828125</v>
+        <v>416.7099914550781</v>
       </c>
       <c r="D13" t="n">
-        <v>431.3099975585938</v>
+        <v>417.1300048828125</v>
       </c>
       <c r="E13" t="n">
-        <v>14492000</v>
+        <v>16582300</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -792,25 +944,37 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>432.2739990234375</v>
+        <v>425.4899963378906</v>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>428.3751488073538</v>
+      </c>
+      <c r="K13" t="n">
+        <v>431.370857098031</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-2.995708290677157</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-1.366247259207939</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>431.5199890136719</v>
+        <v>417.6300048828125</v>
       </c>
       <c r="B14" t="n">
-        <v>431.8500061035156</v>
+        <v>419.5499877929688</v>
       </c>
       <c r="C14" t="n">
-        <v>427.4700012207031</v>
+        <v>414.2900085449219</v>
       </c>
       <c r="D14" t="n">
-        <v>428.0199890136719</v>
+        <v>416.5400085449219</v>
       </c>
       <c r="E14" t="n">
-        <v>14896100</v>
+        <v>13686400</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -819,25 +983,37 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>430.8239990234375</v>
+        <v>422.5359985351562</v>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>426.5543579977489</v>
+      </c>
+      <c r="K14" t="n">
+        <v>430.2722757237266</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-3.717917725977713</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-1.836581352561894</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>428.2099914550781</v>
+        <v>418.239990234375</v>
       </c>
       <c r="B15" t="n">
-        <v>430.4200134277344</v>
+        <v>419.75</v>
       </c>
       <c r="C15" t="n">
-        <v>425.3699951171875</v>
+        <v>414.9700012207031</v>
       </c>
       <c r="D15" t="n">
-        <v>430.2999877929688</v>
+        <v>416.0599975585938</v>
       </c>
       <c r="E15" t="n">
-        <v>16807300</v>
+        <v>19169700</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -846,25 +1022,37 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>430.1819946289062</v>
+        <v>420.1440002441406</v>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>424.9398410071097</v>
+      </c>
+      <c r="K15" t="n">
+        <v>429.2195143781613</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-4.279673371051558</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-2.325199756259827</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>428.4500122070312</v>
+        <v>416</v>
       </c>
       <c r="B16" t="n">
-        <v>428.4800109863281</v>
+        <v>417.1099853515625</v>
       </c>
       <c r="C16" t="n">
-        <v>418.8099975585938</v>
+        <v>409</v>
       </c>
       <c r="D16" t="n">
-        <v>420.6900024414062</v>
+        <v>409.5400085449219</v>
       </c>
       <c r="E16" t="n">
-        <v>19092900</v>
+        <v>20919800</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -873,27 +1061,39 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>428.4859924316406</v>
+        <v>415.9920043945312</v>
       </c>
       <c r="I16" t="n">
-        <v>47.77334725141904</v>
+        <v>25.2846779304804</v>
+      </c>
+      <c r="J16" t="n">
+        <v>422.5706360129269</v>
+      </c>
+      <c r="K16" t="n">
+        <v>427.7617732053287</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-5.191137192401811</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-2.898387243488224</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>422.5799865722656</v>
+        <v>410.8999938964844</v>
       </c>
       <c r="B17" t="n">
-        <v>422.8200073242188</v>
+        <v>415.6600036621094</v>
       </c>
       <c r="C17" t="n">
-        <v>416.7099914550781</v>
+        <v>408.1700134277344</v>
       </c>
       <c r="D17" t="n">
-        <v>417.1300048828125</v>
+        <v>414.7099914550781</v>
       </c>
       <c r="E17" t="n">
-        <v>16582300</v>
+        <v>19229300</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -902,27 +1102,39 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>425.4899963378906</v>
+        <v>414.7960021972656</v>
       </c>
       <c r="I17" t="n">
-        <v>40.57665883087867</v>
+        <v>34.70741866943396</v>
+      </c>
+      <c r="J17" t="n">
+        <v>421.3613060809502</v>
+      </c>
+      <c r="K17" t="n">
+        <v>426.794974557162</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-5.433668476211778</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-3.405443490032935</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>417.6300048828125</v>
+        <v>415.8599853515625</v>
       </c>
       <c r="B18" t="n">
-        <v>419.5499877929688</v>
+        <v>420.3800048828125</v>
       </c>
       <c r="C18" t="n">
-        <v>414.2900085449219</v>
+        <v>414.2999877929688</v>
       </c>
       <c r="D18" t="n">
-        <v>416.5400085449219</v>
+        <v>417.4599914550781</v>
       </c>
       <c r="E18" t="n">
-        <v>13686400</v>
+        <v>14974300</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -931,27 +1143,39 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>422.5359985351562</v>
+        <v>414.8619995117188</v>
       </c>
       <c r="I18" t="n">
-        <v>35.77070432216519</v>
+        <v>27.65728527336435</v>
+      </c>
+      <c r="J18" t="n">
+        <v>420.7611038308161</v>
+      </c>
+      <c r="K18" t="n">
+        <v>426.103494327378</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-5.342390496561904</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-3.79283289133873</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>418.239990234375</v>
+        <v>415.2300109863281</v>
       </c>
       <c r="B19" t="n">
-        <v>419.75</v>
+        <v>417.3500061035156</v>
       </c>
       <c r="C19" t="n">
-        <v>414.9700012207031</v>
+        <v>413.1499938964844</v>
       </c>
       <c r="D19" t="n">
-        <v>416.0599975585938</v>
+        <v>415.8399963378906</v>
       </c>
       <c r="E19" t="n">
-        <v>19169700</v>
+        <v>13848400</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -960,27 +1184,39 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>420.1440002441406</v>
+        <v>414.7219970703125</v>
       </c>
       <c r="I19" t="n">
-        <v>34.43990236850235</v>
+        <v>28.74640644883037</v>
+      </c>
+      <c r="J19" t="n">
+        <v>420.004010370366</v>
+      </c>
+      <c r="K19" t="n">
+        <v>425.3432352170456</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-5.339224846679599</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-4.102111282406904</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>416</v>
+        <v>416.1400146484375</v>
       </c>
       <c r="B20" t="n">
-        <v>417.1099853515625</v>
+        <v>417.1300048828125</v>
       </c>
       <c r="C20" t="n">
-        <v>409</v>
+        <v>413.25</v>
       </c>
       <c r="D20" t="n">
-        <v>409.5400085449219</v>
+        <v>416.3200073242188</v>
       </c>
       <c r="E20" t="n">
-        <v>20919800</v>
+        <v>14144900</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -989,27 +1225,39 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>415.9920043945312</v>
+        <v>414.7739990234375</v>
       </c>
       <c r="I20" t="n">
-        <v>25.2846779304804</v>
+        <v>30.65493035140258</v>
+      </c>
+      <c r="J20" t="n">
+        <v>419.4372406709587</v>
+      </c>
+      <c r="K20" t="n">
+        <v>424.6748479657251</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-5.237607294766406</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-4.329210484878804</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>410.8999938964844</v>
+        <v>417.7699890136719</v>
       </c>
       <c r="B21" t="n">
-        <v>415.6600036621094</v>
+        <v>424.0400085449219</v>
       </c>
       <c r="C21" t="n">
-        <v>408.1700134277344</v>
+        <v>417.5199890136719</v>
       </c>
       <c r="D21" t="n">
-        <v>414.7099914550781</v>
+        <v>419.1400146484375</v>
       </c>
       <c r="E21" t="n">
-        <v>19229300</v>
+        <v>16653100</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1018,27 +1266,39 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>414.7960021972656</v>
+        <v>416.6940002441406</v>
       </c>
       <c r="I21" t="n">
-        <v>34.70741866943396</v>
+        <v>38.31273340715596</v>
+      </c>
+      <c r="J21" t="n">
+        <v>419.3915135905708</v>
+      </c>
+      <c r="K21" t="n">
+        <v>424.2648603125926</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-4.873346722021893</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-4.438037732307422</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>415.8599853515625</v>
+        <v>422.1799926757812</v>
       </c>
       <c r="B22" t="n">
-        <v>420.3800048828125</v>
+        <v>422.4800109863281</v>
       </c>
       <c r="C22" t="n">
-        <v>414.2999877929688</v>
+        <v>415.260009765625</v>
       </c>
       <c r="D22" t="n">
-        <v>417.4599914550781</v>
+        <v>418.739990234375</v>
       </c>
       <c r="E22" t="n">
-        <v>14974300</v>
+        <v>18900200</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1047,27 +1307,39 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>414.8619995117188</v>
+        <v>417.5</v>
       </c>
       <c r="I22" t="n">
-        <v>27.65728527336435</v>
+        <v>33.44067781234975</v>
+      </c>
+      <c r="J22" t="n">
+        <v>419.2912792280791</v>
+      </c>
+      <c r="K22" t="n">
+        <v>423.8556106771691</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-4.564331449089991</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-4.463296475663936</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>415.2300109863281</v>
+        <v>415.1700134277344</v>
       </c>
       <c r="B23" t="n">
-        <v>417.3500061035156</v>
+        <v>416.3599853515625</v>
       </c>
       <c r="C23" t="n">
-        <v>413.1499938964844</v>
+        <v>410.4800109863281</v>
       </c>
       <c r="D23" t="n">
-        <v>415.8399963378906</v>
+        <v>416.1199951171875</v>
       </c>
       <c r="E23" t="n">
-        <v>13807800</v>
+        <v>15493000</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1076,27 +1348,39 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>414.7219970703125</v>
+        <v>417.2320007324219</v>
       </c>
       <c r="I23" t="n">
-        <v>28.74640644883037</v>
+        <v>31.99810196443788</v>
+      </c>
+      <c r="J23" t="n">
+        <v>418.803389364865</v>
+      </c>
+      <c r="K23" t="n">
+        <v>423.2826021171705</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-4.479212752305557</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-4.46647973099226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>415.9100036621094</v>
+        <v>422.5</v>
       </c>
       <c r="B24" t="n">
-        <v>416</v>
+        <v>422.5</v>
       </c>
       <c r="C24" t="n">
-        <v>413.2699890136719</v>
+        <v>415.6000061035156</v>
       </c>
       <c r="D24" t="n">
-        <v>415.1400146484375</v>
+        <v>416.4549865722656</v>
       </c>
       <c r="E24" t="n">
-        <v>1588562</v>
+        <v>8487951</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1105,10 +1389,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>414.5380004882812</v>
+        <v>417.3549987792969</v>
       </c>
       <c r="I24" t="n">
-        <v>29.42885185306694</v>
+        <v>35.26187490860669</v>
+      </c>
+      <c r="J24" t="n">
+        <v>418.442096627542</v>
+      </c>
+      <c r="K24" t="n">
+        <v>422.7768528175479</v>
+      </c>
+      <c r="L24" t="n">
+        <v>-4.334756190005919</v>
+      </c>
+      <c r="M24" t="n">
+        <v>-4.440135022794992</v>
       </c>
     </row>
   </sheetData>
